--- a/sections.xlsx
+++ b/sections.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Valculus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E496F1-E7E0-46AA-9246-D75A5807547E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38509A90-E176-4852-B092-D8E1448A7046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="27870" windowHeight="16440" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Unit0" sheetId="1" r:id="rId1"/>
-    <sheet name="Unit1" sheetId="2" r:id="rId2"/>
-    <sheet name="Unit2" sheetId="3" r:id="rId3"/>
-    <sheet name="Unit3" sheetId="4" r:id="rId4"/>
-    <sheet name="Unit4" sheetId="5" r:id="rId5"/>
-    <sheet name="Unit5" sheetId="6" r:id="rId6"/>
-    <sheet name="Unit6" sheetId="7" r:id="rId7"/>
-    <sheet name="Unit7" sheetId="8" r:id="rId8"/>
-    <sheet name="Unit8" sheetId="9" r:id="rId9"/>
-    <sheet name="Unit9" sheetId="10" r:id="rId10"/>
-    <sheet name="Unit10" sheetId="11" r:id="rId11"/>
+    <sheet name="Preliminaries" sheetId="1" r:id="rId1"/>
+    <sheet name="Limits and Continuity" sheetId="2" r:id="rId2"/>
+    <sheet name="Differentiation Rules" sheetId="3" r:id="rId3"/>
+    <sheet name="Applications of Differentiation" sheetId="4" r:id="rId4"/>
+    <sheet name="Integration" sheetId="5" r:id="rId5"/>
+    <sheet name="Applications of Integration" sheetId="6" r:id="rId6"/>
+    <sheet name="Further Integration Techniques" sheetId="7" r:id="rId7"/>
+    <sheet name="Differential Equations" sheetId="8" r:id="rId8"/>
+    <sheet name="Parametric and Vector Functions" sheetId="9" r:id="rId9"/>
+    <sheet name="Polar Coordinates" sheetId="10" r:id="rId10"/>
+    <sheet name="Infinite Series and Sequences" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -302,9 +302,6 @@
     <t>Differentiating products and quotients of functions.Algebraic and graphical applications.Contains geometric intuition and proof.</t>
   </si>
   <si>
-    <t>The use of natural logarithms to simplify products, quotients, and compositionsof functions for easier differentiation.</t>
-  </si>
-  <si>
     <t>Introduction to hyperbolic functions and their derivatives. Applications to physics and structural design.</t>
   </si>
   <si>
@@ -339,6 +336,9 @@
   </si>
   <si>
     <t>Approximation of zeros using tangent lines. Inclusion of algorithms.</t>
+  </si>
+  <si>
+    <t>The use of natural logarithms to simplify products, quotients, and compositions of functions for easier differentiation.</t>
   </si>
 </sst>
 </file>
@@ -681,12 +681,12 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47" customWidth="1"/>
+    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -777,9 +777,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -861,7 +866,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -935,7 +940,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -964,7 +969,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -972,7 +977,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -980,7 +985,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -988,7 +993,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -996,7 +1001,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1008,7 +1013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
@@ -1022,7 +1027,7 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1030,7 +1035,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1038,7 +1043,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1046,7 +1051,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1054,7 +1059,7 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1062,7 +1067,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1070,7 +1075,7 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1078,7 +1083,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1090,7 +1095,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/sections.xlsx
+++ b/sections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Valculus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38509A90-E176-4852-B092-D8E1448A7046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F115A34-539D-409F-888E-065329F9B89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="27870" windowHeight="16440" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12312" yWindow="1056" windowWidth="17100" windowHeight="12216" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Preliminaries" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>Quadratics</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Newton's Method</t>
   </si>
   <si>
-    <t>Defining an Antiderivative</t>
-  </si>
-  <si>
     <t>Definite Integrals</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>Arc Length</t>
   </si>
   <si>
-    <t>Volumes by Solids of Revolution</t>
-  </si>
-  <si>
     <t>Surface Area of Revolution</t>
   </si>
   <si>
@@ -149,9 +143,6 @@
     <t>Center of Mass</t>
   </si>
   <si>
-    <t>Hydrostatic Pressure</t>
-  </si>
-  <si>
     <t>Integration by Parts</t>
   </si>
   <si>
@@ -167,12 +158,6 @@
     <t>Improper Integrals</t>
   </si>
   <si>
-    <t>Defining a Differential Equation</t>
-  </si>
-  <si>
-    <t>Verifying Solutions to Differential Equations</t>
-  </si>
-  <si>
     <t>Slope Fields</t>
   </si>
   <si>
@@ -269,9 +254,6 @@
     <t>Graphs of common parent functions, including polynomial, exponential, logarithmic,radical, trigonometric, and inverse functions. Discussion of phase shifts, vertical translations, and horizontal and vertical dilation.</t>
   </si>
   <si>
-    <t>Overview of trig functions and inverse trig functions.Review of graphs, trig identities, domain and range, and the unit circle.Solving of trig equations and simplification of trig expressions.</t>
-  </si>
-  <si>
     <t>Graphing exponential and logarithmic functions.Solving equations of exponents and logarithms, and their relationshipas inverse functions.</t>
   </si>
   <si>
@@ -339,19 +321,115 @@
   </si>
   <si>
     <t>The use of natural logarithms to simplify products, quotients, and compositions of functions for easier differentiation.</t>
+  </si>
+  <si>
+    <t>Overview of trig functions and inverse trig functions.Review of graphs, trig identities, domain and range, and the unit circle. Solving of trig equations and simplification of trig expressions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overview and proof of Mean Value Theorem for Integrals. Includes geometric intuition. </t>
+  </si>
+  <si>
+    <t>Transformation of an integral using a substitution. Intuition to Chain Rule. Discussion of changing of bounds and inclusion of Fundamental Theorem of Calculus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundamental Theorem of Calculus, Part I and Part II, to evaluate definite integrals. Proof and geometric intuition. </t>
+  </si>
+  <si>
+    <t>Disk and Washer Methods</t>
+  </si>
+  <si>
+    <t>Shell Method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riemann definition of definite integral with geometric interpretation. Conversion between definite integrals and limits of Riemann sums. Evaluating Riemann sums algebraically and using tables. </t>
+  </si>
+  <si>
+    <t>Hydrostatic Force</t>
+  </si>
+  <si>
+    <t>Use of definite integrals to calculate areas of bounded regions. Integrating vertically and horizontally, given functions expressed in \(x\) or \(y.\)</t>
+  </si>
+  <si>
+    <t>Length of a smooth, planar curve. Includes derivation and geometric intuition.</t>
+  </si>
+  <si>
+    <t>Use of the disk and washer methods to calculate the volume of the solid generated when a bounded region is spun around an axis. Includes horizontal and vertical axes of rotation. Extensive geometric intuition, figures, and simulations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An alternative to the washer method to calculate the volume of the solid generated when a bounded region is spun around an axis. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The surface area of the solid generated when a bounded region is spun around an axis. </t>
+  </si>
+  <si>
+    <t>Definition of probability density functions and cumulative density functions. Use of calculus to determine whether a function is a potential probability density function.</t>
+  </si>
+  <si>
+    <t>Work done by a force. Problems applicable to physics and engineering.</t>
+  </si>
+  <si>
+    <t>Definition of center of mass. Application to rigid, continuous objects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hydrostatic force acting on a stationary, submerged object. </t>
+  </si>
+  <si>
+    <t>Antidifferentiation</t>
+  </si>
+  <si>
+    <t>Definition of an antiderivative (indefinite integral). Exercises of basic antidifferentiation. Antiderivatives of simple functions.</t>
+  </si>
+  <si>
+    <t>Integrating a product of functions. Includes tabular shortcut for repeated iterations.</t>
+  </si>
+  <si>
+    <t>Computing trig integrals using trig identities and Integration by Parts.</t>
+  </si>
+  <si>
+    <t>Transformation of an integral using trig substitutions. Discussion of cases of substitution and changing of bounds. Geometric motivation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration by re-expressing a rational expression as the sum of partial fractions. Review of calculating partial fractions. Linear and higher-order partial fractions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration of a function over an unbounded region (Type I improper integral) or through an infinite discontinuity (Type II improper integral).  </t>
+  </si>
+  <si>
+    <t>Modeling with Differential Equations</t>
+  </si>
+  <si>
+    <t>Defining a differential equation. Writing differential equations to model scenarios. Verifying that a given function is a solution to a differential equation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to a slope field (also called direction field) as a graphical representation of solutions to a differential equation.  </t>
+  </si>
+  <si>
+    <t>Euler’s method as a numerical approximation to approximate solutions to differential equations. Use in tabular and algebraic situations. Algorithms involved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solving a first-order differential equation by separating variables. Solving for a constant of integration using an initial condition. </t>
+  </si>
+  <si>
+    <t>Modeling with exponential and logistic growth. Exponential growth models: Newton’s Law of Cooling, unrestricted population growth, and compound interest. Logistic growth models: disease spread and restricted population growth.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -374,8 +452,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -680,14 +761,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.33203125" customWidth="1"/>
+    <col min="2" max="2" width="238.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -695,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -703,7 +784,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -711,7 +792,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -719,7 +800,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -727,7 +808,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -745,27 +826,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
@@ -788,72 +869,72 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -866,12 +947,13 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
+    <col min="2" max="2" width="165.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -879,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -887,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -895,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -903,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -911,7 +993,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -919,7 +1001,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -927,11 +1009,12 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -940,12 +1023,13 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="214.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -953,7 +1037,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -961,7 +1045,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -969,7 +1053,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -977,7 +1061,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -985,7 +1069,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -993,7 +1077,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1001,7 +1085,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1019,7 +1103,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="158.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1027,7 +1112,7 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1035,7 +1120,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1043,7 +1128,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1051,7 +1136,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1059,7 +1144,7 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1067,7 +1152,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1075,7 +1160,7 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1083,7 +1168,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1093,37 +1178,56 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="160.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>31</v>
+      <c r="B5" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1133,50 +1237,88 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="195.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B6" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B7" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>39</v>
+      <c r="B8" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1186,35 +1328,56 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="134.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>44</v>
+      <c r="B5" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1224,40 +1387,56 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="193.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>50</v>
+      <c r="B5" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1269,38 +1448,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/sections.xlsx
+++ b/sections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Valculus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F115A34-539D-409F-888E-065329F9B89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1944E549-E0D6-4177-AD9B-E596A1EA27CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12312" yWindow="1056" windowWidth="17100" windowHeight="12216" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30000" windowHeight="17496" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Preliminaries" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>Quadratics</t>
   </si>
@@ -176,12 +176,6 @@
     <t>Differentiating Parametric Functions</t>
   </si>
   <si>
-    <t>Position, Velocity, and Acceleration</t>
-  </si>
-  <si>
-    <t>Speed and Distance Traveled</t>
-  </si>
-  <si>
     <t>Areas of Parametric Curves</t>
   </si>
   <si>
@@ -203,12 +197,6 @@
     <t>Conic Sections of Polar Functions</t>
   </si>
   <si>
-    <t>Overview of Infinite Sequences and Series</t>
-  </si>
-  <si>
-    <t>Infinite Geometric Series</t>
-  </si>
-  <si>
     <t>Binomial Series</t>
   </si>
   <si>
@@ -236,15 +224,6 @@
     <t>Maclaurin and Taylor Series</t>
   </si>
   <si>
-    <t>Alternating Series Error Bound</t>
-  </si>
-  <si>
-    <t>Lagrange Error Bound</t>
-  </si>
-  <si>
-    <t>Remainders with Integral Test</t>
-  </si>
-  <si>
     <t>Quadratics in standard, vertex, and intercept forms.Review of factoring, completing the square,the discriminant, and the quadratic formula. Classifying solution types; determining minima and maxima;and identifying defining features of parabolas: intercepts, axis of symmetry,and vertex.</t>
   </si>
   <si>
@@ -411,6 +390,108 @@
   </si>
   <si>
     <t>Modeling with exponential and logistic growth. Exponential growth models: Newton’s Law of Cooling, unrestricted population growth, and compound interest. Logistic growth models: disease spread and restricted population growth.</t>
+  </si>
+  <si>
+    <t>Volumes with Cross Sections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finding the volume of a solid whose base lies in a plane and whose cross-sections are geometric figures. </t>
+  </si>
+  <si>
+    <t>Particle Motion with Parametric Functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to parametric functions in two dimensions. Conversion between cartesian and parametric. Parameterization, eliminating the parameter, and curve sketching. </t>
+  </si>
+  <si>
+    <t>Differentiating parametric functions with geometric interpretation. Finding \(\frac{\dd x}{\dd t},\) \(\frac{\dd y}{\dd t},\) \(\frac{\dd y}{\dd x},\) and \(\frac{\dd^2 y}{\dd x^2},\) where \(x\) and \(y\) are parametric functions of \(t.\)</t>
+  </si>
+  <si>
+    <t>Determining the area of a region bounded by parametric curves. Substitutions and changing of bounds of integration.</t>
+  </si>
+  <si>
+    <t>Finding the length of a parametric curve. Geometric interpterion and derivation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modeling of a particle moving along a parametric curve. Includes vector-valued functions: position, velocity, and acceleration. Discussion of speed and distance traveled. </t>
+  </si>
+  <si>
+    <t>Arclength of Polar Curves</t>
+  </si>
+  <si>
+    <t>Introduction to polar coordinates. Conversion between polar and cartesian coordinates. Expression of polar functions as parametric functions of angle. Sketching polar graphs, with presentation of common graphs.</t>
+  </si>
+  <si>
+    <t>Finding and interpreting \(\frac{\dd x}{\dd \theta},\) \(\frac{\dd y}{\dd \theta},\) and \(\frac{\dd r}{\dd \theta},\) where \(r\) is a polar function of \(\theta.\)</t>
+  </si>
+  <si>
+    <t>Determining the area of a region bounded by one or more polar curves. Derivation and geometric interpretation of formula used.</t>
+  </si>
+  <si>
+    <t>Calculating the arclength of a polar curve. Geometric intuition and proof.</t>
+  </si>
+  <si>
+    <t>Finding the surface area obtained by rotating a polar curve about an axis. Extensive visual representations and intuition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Representing conic sections using polar functions. Discussion of the eccentricity, focus, and directrix. </t>
+  </si>
+  <si>
+    <t>Finding Interval of Convergence</t>
+  </si>
+  <si>
+    <t>Sequences</t>
+  </si>
+  <si>
+    <t>Infinite Series and Divergence Test</t>
+  </si>
+  <si>
+    <t>Geometric Series</t>
+  </si>
+  <si>
+    <t>Error Bounds</t>
+  </si>
+  <si>
+    <t>Overview of finite and infinite sequences. Determining convergence or divergence of infinite sequences. Writing sequences recursively and explicitly.</t>
+  </si>
+  <si>
+    <t>Overview of infinite series. Use of Divergence Test to show that a series diverges. Establishing \(p\)-series and the Harmonic series.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finite and infinite geometric series. Includes test to determine whether an infinite geometric series converges or diverges. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binomial Theorem and binomial series. Expansion of binomials of integer and noninteger powers. </t>
+  </si>
+  <si>
+    <t>Evaluating the sum of telescoping series. Includes partial fraction decomposition.</t>
+  </si>
+  <si>
+    <t>Limit Comparison Test and Direct Comparison Test. Determining whether a series converges or diverges by comparing it with another series whose convergence or divergence is known.</t>
+  </si>
+  <si>
+    <t>Introduction to alternating series. Testing whether an alternating series converges, with conditions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definition of absolute convergence and conditional convergence. Testing for these types of convergences. </t>
+  </si>
+  <si>
+    <t>Use of Ratio Test and Root Test to test for convergence or divergence of a series. Discussion of conditions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use of Integral Test to test for convergence or divergence of a series. Discussion of conditions. </t>
+  </si>
+  <si>
+    <t>Introduction to power series. Maclaurin series and Taylor series. Discussion of center and radius of convergence. Establishing interval of convergence using Taylor’s Remainder Theorem (Lagrange Error Bound).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algebraic manipulation of geometric series to re-express rational expressions as geometric series. Recentering geometric series. </t>
+  </si>
+  <si>
+    <t>Using ratio test to find the radius of convergence and interval of convergence of a power series.</t>
+  </si>
+  <si>
+    <t>Bounding the error when a partial sum is used to approximate an infinite series. Includes Alternating Series Bound, Taylor’s Remainder Theorem (Lagrange Error Bound), and remainders with the Integral Test.</t>
   </si>
 </sst>
 </file>
@@ -776,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -784,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -792,7 +873,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -800,7 +881,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -808,7 +889,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -818,36 +899,68 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="178.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>56</v>
-      </c>
+      <c r="B6" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -856,86 +969,132 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="174" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B8" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B9" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B10" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>70</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -961,7 +1120,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -969,7 +1128,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -977,7 +1136,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -985,7 +1144,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -993,7 +1152,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1001,7 +1160,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1009,7 +1168,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1037,7 +1196,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1045,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1053,7 +1212,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1061,7 +1220,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1069,7 +1228,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1077,7 +1236,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1085,7 +1244,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1112,7 +1271,7 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1120,7 +1279,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1128,7 +1287,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1136,7 +1295,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1144,7 +1303,7 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1152,7 +1311,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1160,7 +1319,7 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1168,7 +1327,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1192,10 +1351,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1203,7 +1362,7 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1211,7 +1370,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1219,7 +1378,7 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1227,7 +1386,7 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1237,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1254,7 +1413,7 @@
         <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1262,63 +1421,71 @@
         <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1345,7 +1512,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1353,7 +1520,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1361,7 +1528,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1369,7 +1536,7 @@
         <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1377,7 +1544,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1401,10 +1568,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1412,7 +1579,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1420,7 +1587,7 @@
         <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1428,7 +1595,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1436,7 +1603,7 @@
         <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1446,45 +1613,60 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="190.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>51</v>
+      <c r="B5" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sections.xlsx
+++ b/sections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Valculus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1944E549-E0D6-4177-AD9B-E596A1EA27CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EA4C17-4035-48A7-A562-4DC4A5DB0609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30000" windowHeight="17496" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30000" windowHeight="17496" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Preliminaries" sheetId="1" r:id="rId1"/>
@@ -191,12 +191,6 @@
     <t>Areas of Polar Curves</t>
   </si>
   <si>
-    <t>Surface Area of Polar Curves</t>
-  </si>
-  <si>
-    <t>Conic Sections of Polar Functions</t>
-  </si>
-  <si>
     <t>Binomial Series</t>
   </si>
   <si>
@@ -416,9 +410,6 @@
     <t xml:space="preserve">Modeling of a particle moving along a parametric curve. Includes vector-valued functions: position, velocity, and acceleration. Discussion of speed and distance traveled. </t>
   </si>
   <si>
-    <t>Arclength of Polar Curves</t>
-  </si>
-  <si>
     <t>Introduction to polar coordinates. Conversion between polar and cartesian coordinates. Expression of polar functions as parametric functions of angle. Sketching polar graphs, with presentation of common graphs.</t>
   </si>
   <si>
@@ -492,6 +483,15 @@
   </si>
   <si>
     <t>Bounding the error when a partial sum is used to approximate an infinite series. Includes Alternating Series Bound, Taylor’s Remainder Theorem (Lagrange Error Bound), and remainders with the Integral Test.</t>
+  </si>
+  <si>
+    <t>Surface Area with Polar Curves</t>
+  </si>
+  <si>
+    <t>Arc Length of Polar Curves</t>
+  </si>
+  <si>
+    <t>Conic Sections with Polar Functions</t>
   </si>
 </sst>
 </file>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -873,7 +873,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -881,7 +881,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -889,7 +889,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -899,10 +899,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,7 +916,7 @@
         <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -924,7 +924,7 @@
         <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -932,35 +932,32 @@
         <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
+        <v>131</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -969,10 +966,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -983,118 +980,115 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1120,7 +1114,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1128,7 +1122,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1136,7 +1130,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1144,7 +1138,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1152,7 +1146,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1160,7 +1154,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1168,7 +1162,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1196,7 +1190,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1204,7 +1198,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1212,7 +1206,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1220,7 +1214,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1228,7 +1222,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1236,7 +1230,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1244,7 +1238,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1271,7 +1265,7 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1279,7 +1273,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1287,7 +1281,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1295,7 +1289,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1303,7 +1297,7 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1311,7 +1305,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1319,7 +1313,7 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1327,7 +1321,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1351,10 +1345,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1362,7 +1356,7 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1370,7 +1364,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1378,7 +1372,7 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1386,7 +1380,7 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1413,7 +1407,7 @@
         <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1421,31 +1415,31 @@
         <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1453,7 +1447,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1461,7 +1455,7 @@
         <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1469,7 +1463,7 @@
         <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1477,15 +1471,15 @@
         <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1512,7 +1506,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1520,7 +1514,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1528,7 +1522,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1536,7 +1530,7 @@
         <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1544,7 +1538,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1568,10 +1562,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1579,7 +1573,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1587,7 +1581,7 @@
         <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1595,7 +1589,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1603,7 +1597,7 @@
         <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1630,7 +1624,7 @@
         <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1638,15 +1632,15 @@
         <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1654,7 +1648,7 @@
         <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1662,7 +1656,7 @@
         <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/sections.xlsx
+++ b/sections.xlsx
@@ -434,7 +434,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>

--- a/sections.xlsx
+++ b/sections.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="12312" yWindow="1056" windowWidth="17100" windowHeight="12216" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="30000" windowHeight="17496" tabRatio="600" firstSheet="6" activeTab="10" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Preliminaries" sheetId="1" state="visible" r:id="rId1"/>
@@ -433,7 +433,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -611,8 +611,8 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -648,7 +648,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Geometric Series</t>
+          <t>Infinite Geometric Series</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -780,7 +780,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Error Bounds</t>
+          <t>Error Bounds to Series</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
